--- a/skin_diseases.xlsx
+++ b/skin_diseases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B182"/>
+  <dimension ref="A1:B191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,1954 +664,2062 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sẩn sừng hóa hoặc nhẵn bóng, mọc đơn lẻ hoặc thành cụm; không đau, dễ lây lan.Mình cảm thấy da mặt đỏ nhiều và có các nốt mụn mủ nhỏ, đặc biệt quanh cằm và trán.</t>
+          <t>Sẩn sừng hóa hoặc nhẵn bóng, mọc đơn lẻ hoặc thành cụm; không đau, dễ lây lan.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mảng da trên tay mình cứng, hơi sần sùi, thỉnh thoảng có vết loét nhỏ, khó lành.</t>
+          <t>Mình cảm thấy da mặt đỏ nhiều và có các nốt mụn mủ nhỏ, đặc biệt quanh cằm và trán.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Da đầu và cổ mình khô, bong vảy, ngứa khi thời tiết hanh khô.</t>
+          <t>Mảng da trên tay mình cứng, hơi sần sùi, thỉnh thoảng có vết loét nhỏ, khó lành.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chân mình đỏ ửng, căng và đau khi đi bộ, thấy xuất hiện mụn mủ nhỏ ở vùng da tổn thương.</t>
+          <t>Da đầu và cổ mình khô, bong vảy, ngứa khi thời tiết hanh khô.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Da mình xuất hiện mảng đỏ, khô, nứt nẻ, đôi khi có dịch vàng.</t>
+          <t>Chân mình đỏ ửng, căng và đau khi đi bộ, thấy xuất hiện mụn mủ nhỏ ở vùng da tổn thương.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mình bị phát ban toàn thân sau khi dùng thuốc giảm đau, kèm ngứa nhẹ và nóng rát.</t>
+          <t>Da mình xuất hiện mảng đỏ, khô, nứt nẻ, đôi khi có dịch vàng.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mình có mụn nước ở bộ phận sinh dục, đau và khó chịu, đặc biệt khi cọ xát.</t>
+          <t>Mình bị phát ban toàn thân sau khi dùng thuốc giảm đau, kèm ngứa nhẹ và nóng rát.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Da mình trắng bệch ở vài vùng trên cánh tay và mặt, trong khi các vùng khác bình thường.</t>
+          <t>Mình có mụn nước ở bộ phận sinh dục, đau và khó chịu, đặc biệt khi cọ xát.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mỗi lần tiếp xúc ánh nắng, mũi và hai má mình đỏ, đau nhẹ và cảm giác nóng rát.</t>
+          <t>Da mình trắng bệch ở vài vùng trên cánh tay và mặt, trong khi các vùng khác bình thường.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Một nốt ruồi mới xuất hiện gần vai, màu tối hơn, hình dạng không đều, mình hơi lo.</t>
+          <t>Mỗi lần tiếp xúc ánh nắng, mũi và hai má mình đỏ, đau nhẹ và cảm giác nóng rát.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sau khi cào phải cây cỏ trong vườn, tay nổi mụn nước, đỏ rát, ngứa dữ dội.</t>
+          <t>Một nốt ruồi mới xuất hiện gần vai, màu tối hơn, hình dạng không đều, mình hơi lo.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mảng da ở chân đỏ, sần sùi, ngứa và bong vảy từng mảng nhỏ.</t>
+          <t>Sau khi cào phải cây cỏ trong vườn, tay nổi mụn nước, đỏ rát, ngứa dữ dội.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Một mảng nâu trên lưng mình nhô lên, bề mặt sần sùi, không đau nhưng nhìn thấy rõ.</t>
+          <t>Mảng da ở chân đỏ, sần sùi, ngứa và bong vảy từng mảng nhỏ.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Da mình sưng nhẹ và đổi màu ở vùng chân, đôi khi xuất hiện cảm giác ngứa.</t>
+          <t>Một mảng nâu trên lưng mình nhô lên, bề mặt sần sùi, không đau nhưng nhìn thấy rõ.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Vùng da ở bẹn mình đỏ, rìa rõ, trung tâm sáng hơn, ngứa và rát khi cọ xát.</t>
+          <t>Da mình sưng nhẹ và đổi màu ở vùng chân, đôi khi xuất hiện cảm giác ngứa.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mình nổi mảng sẩn lớn, gồ lên, ngứa nhiều, xuất hiện bất chợt, thường mất sau vài giờ.</t>
+          <t>Vùng da ở bẹn mình đỏ, rìa rõ, trung tâm sáng hơn, ngứa và rát khi cọ xát.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mình thấy một khối màu đỏ sẫm trên cánh tay, mềm và nhô cao, không đau nhưng nhìn thấy rõ.</t>
+          <t>Mình nổi mảng sẩn lớn, gồ lên, ngứa nhiều, xuất hiện bất chợt, thường mất sau vài giờ.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Một số nốt đỏ tím trên cẳng chân, hơi đau và sưng, xuất hiện sau khi mình bị sốt.</t>
+          <t>Mình thấy một khối màu đỏ sẫm trên cánh tay, mềm và nhô cao, không đau nhưng nhìn thấy rõ.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Trên tay và ngón mình mọc sẩn cứng nhỏ, có đầu sần sùi, không đau nhưng lan ra dần.Da mặt mình có nhiều mụn đỏ li ti, sờ vào hơi đau, đặc biệt là khi căng thẳng hoặc ăn đồ cay.</t>
+          <t>Một số nốt đỏ tím trên cẳng chân, hơi đau và sưng, xuất hiện sau khi mình bị sốt.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mình thấy một mảng da hơi cứng, màu nâu đỏ trên trán, thỉnh thoảng bị chảy máu khi gãi.</t>
+          <t>Trên tay và ngón mình mọc sẩn cứng nhỏ, có đầu sần sùi, không đau nhưng lan ra dần.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vùng cổ và khuỷu tay mình ngứa ngáy, da bong tróc như bị cháy nắng, nhiều lúc không ngủ được.</t>
+          <t>Da mặt mình có nhiều mụn đỏ li ti, sờ vào hơi đau, đặc biệt là khi căng thẳng hoặc ăn đồ cay.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chân mình sưng và đỏ lên từng mảng, đi lại khó chịu, có khi còn hơi sốt nhẹ.</t>
+          <t>Mình thấy một mảng da hơi cứng, màu nâu đỏ trên trán, thỉnh thoảng bị chảy máu khi gãi.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mấy ngày nay da tay mình nứt nẻ và bong vảy, ngứa kinh khủng mỗi khi rửa tay.</t>
+          <t>Vùng cổ và khuỷu tay mình ngứa ngáy, da bong tróc như bị cháy nắng, nhiều lúc không ngủ được.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sau khi uống thuốc kháng sinh, mình nổi ban đỏ rải rác, có chỗ thành mảng và hơi đau rát.</t>
+          <t>Chân mình sưng và đỏ lên từng mảng, đi lại khó chịu, có khi còn hơi sốt nhẹ.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mình có vài nốt mụn nước quanh môi, rỉ dịch lúc khô lúc ướt, làm mình mất tự tin.</t>
+          <t>Mấy ngày nay da tay mình nứt nẻ và bong vảy, ngứa kinh khủng mỗi khi rửa tay.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mình để ý vài vùng da trên cánh tay sáng hơn bình thường, khác hẳn so với phần còn lại.</t>
+          <t>Sau khi uống thuốc kháng sinh, mình nổi ban đỏ rải rác, có chỗ thành mảng và hơi đau rát.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mỗi lần ra ngoài nắng, má và mũi mình đỏ rát, đôi khi còn thấy da hơi nóng như cháy.</t>
+          <t>Mình có vài nốt mụn nước quanh môi, rỉ dịch lúc khô lúc ướt, làm mình mất tự tin.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Nốt ruồi trên vai mình ngày càng to, viền không đều và có màu hơi đậm hơn, sờ vào thấy hơi cứng.</t>
+          <t>Mình để ý vài vùng da trên cánh tay sáng hơn bình thường, khác hẳn so với phần còn lại.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mình vừa đi rừng về, tay bị mẩn đỏ, nổi mụn nước, ngứa dữ dội, khó chịu đến mức phải dùng băng.</t>
+          <t>Mỗi lần ra ngoài nắng, má và mũi mình đỏ rát, đôi khi còn thấy da hơi nóng như cháy.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mảng đỏ trên da đầu gối mình bong vảy, ngứa, và lâu lâu chảy dịch vàng nhỏ.</t>
+          <t>Nốt ruồi trên vai mình ngày càng to, viền không đều và có màu hơi đậm hơn, sờ vào thấy hơi cứng.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Trên lưng mình xuất hiện một mảng nâu sẫm nhô lên, hơi ráp khi chạm, không đau nhưng nhìn thấy rõ.</t>
+          <t>Mình vừa đi rừng về, tay bị mẩn đỏ, nổi mụn nước, ngứa dữ dội, khó chịu đến mức phải dùng băng.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Da mình sưng đỏ ở cổ chân, kèm cảm giác nóng, nhưng không rõ nguyên nhân.</t>
+          <t>Mảng đỏ trên da đầu gối mình bong vảy, ngứa, và lâu lâu chảy dịch vàng nhỏ.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Vùng bẹn mình nổi mẩn đỏ hình tròn, rìa rõ, trung tâm nhạt hơn, ngứa nhiều khi vận động.</t>
+          <t>Trên lưng mình xuất hiện một mảng nâu sẫm nhô lên, hơi ráp khi chạm, không đau nhưng nhìn thấy rõ.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mình thấy vài mảng da nổi gồ, ngứa bất chợt và mất sau vài giờ, nhưng hôm sau lại xuất hiện ở chỗ khác.</t>
+          <t>Da mình sưng đỏ ở cổ chân, kèm cảm giác nóng, nhưng không rõ nguyên nhân.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mình nhìn thấy một cục đỏ nhỏ nhô trên cánh tay, mềm và ấm, thỉnh thoảng hơi đau.</t>
+          <t>Vùng bẹn mình nổi mẩn đỏ hình tròn, rìa rõ, trung tâm nhạt hơn, ngứa nhiều khi vận động.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Trên cẳng chân xuất hiện các nốt đỏ tím, hơi đau, kèm cảm giác nhói nhẹ khi chạm vào.</t>
+          <t>Mình thấy vài mảng da nổi gồ, ngứa bất chợt và mất sau vài giờ, nhưng hôm sau lại xuất hiện ở chỗ khác.</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Trên tay mình mọc những nốt cứng, sần sùi, lan ra dần, hơi ngứa khi gãi.Da mình nổi các nốt mụn đỏ li ti, có lúc chảy mủ nhẹ, nhất là khi căng thẳng.</t>
+          <t>Mình nhìn thấy một cục đỏ nhỏ nhô trên cánh tay, mềm và ấm, thỉnh thoảng hơi đau.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Mình thấy một vết sần cứng trên tay, hơi ngứa và đôi lúc rỉ máu khi gãi mạnh.</t>
+          <t>Trên cẳng chân xuất hiện các nốt đỏ tím, hơi đau, kèm cảm giác nhói nhẹ khi chạm vào.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Vùng khuỷu tay khô, bong vảy, ngứa nhiều về đêm, cảm giác rát khi cào.</t>
+          <t>Trên tay mình mọc những nốt cứng, sần sùi, lan ra dần, hơi ngứa khi gãi.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chân bị sưng đỏ, đau nhẹ, và xuất hiện mụn nước nhỏ rải rác.</t>
+          <t>Da mình nổi các nốt mụn đỏ li ti, có lúc chảy mủ nhẹ, nhất là khi căng thẳng.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Da tay khô, nứt nẻ, có mảng bong vảy, ngứa dữ dội khi rửa tay.</t>
+          <t>Mình thấy một vết sần cứng trên tay, hơi ngứa và đôi lúc rỉ máu khi gãi mạnh.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sau khi uống thuốc kháng viêm, mình nổi ban đỏ mảng lớn, hơi ngứa và nóng rát.</t>
+          <t>Vùng khuỷu tay khô, bong vảy, ngứa nhiều về đêm, cảm giác rát khi cào.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mình phát hiện vài nốt mụn nước ở môi, đau rát khi ăn đồ nóng hoặc chạm vào.</t>
+          <t>Chân bị sưng đỏ, đau nhẹ, và xuất hiện mụn nước nhỏ rải rác.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Da cánh tay xuất hiện vài mảng sáng hơn bình thường, khác hẳn các vùng khác.</t>
+          <t>Da tay khô, nứt nẻ, có mảng bong vảy, ngứa dữ dội khi rửa tay.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Má và mũi đỏ rát sau khi ra ngoài trời nắng, cảm giác hơi nóng như cháy da.</t>
+          <t>Sau khi uống thuốc kháng viêm, mình nổi ban đỏ mảng lớn, hơi ngứa và nóng rát.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Nốt ruồi ở vai to lên, viền không đều, màu sậm hơn, sờ vào hơi cứng.</t>
+          <t>Mình phát hiện vài nốt mụn nước ở môi, đau rát khi ăn đồ nóng hoặc chạm vào.</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Tay nổi mẩn đỏ sau khi cắt cỏ, mụn nước li ti, ngứa dữ dội và khó chịu.</t>
+          <t>Da cánh tay xuất hiện vài mảng sáng hơn bình thường, khác hẳn các vùng khác.</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mảng da đỏ ở đầu gối bong vảy, ngứa, thỉnh thoảng chảy dịch vàng nhỏ.</t>
+          <t>Má và mũi đỏ rát sau khi ra ngoài trời nắng, cảm giác hơi nóng như cháy da.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Trên lưng xuất hiện mảng nâu sẫm nhô lên, bề mặt hơi ráp, không đau.</t>
+          <t>Nốt ruồi ở vai to lên, viền không đều, màu sậm hơn, sờ vào hơi cứng.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Cổ chân sưng đỏ, nóng nhẹ, không rõ nguyên nhân.</t>
+          <t>Tay nổi mẩn đỏ sau khi cắt cỏ, mụn nước li ti, ngứa dữ dội và khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Bẹn nổi mẩn tròn, rìa rõ, trung tâm nhạt hơn, ngứa nhiều khi cọ xát.</t>
+          <t>Mảng da đỏ ở đầu gối bong vảy, ngứa, thỉnh thoảng chảy dịch vàng nhỏ.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Mấy mảng da nổi gồ, ngứa bất chợt, mất vài giờ rồi lại xuất hiện ở chỗ khác.</t>
+          <t>Trên lưng xuất hiện mảng nâu sẫm nhô lên, bề mặt hơi ráp, không đau.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Cánh tay nổi cục đỏ nhỏ, mềm và hơi ấm, thỉnh thoảng đau nhói.</t>
+          <t>Cổ chân sưng đỏ, nóng nhẹ, không rõ nguyên nhân.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Cẳng chân có nốt đỏ tím, hơi đau, cảm giác nhói khi chạm.</t>
+          <t>Bẹn nổi mẩn tròn, rìa rõ, trung tâm nhạt hơn, ngứa nhiều khi cọ xát.</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Ngón tay mọc sẩn cứng, sần sùi, lan ra dần, hơi ngứa khi cào mạnh.Da mình nổi mụn đỏ, có mủ, sờ vào hơi đau, đặc biệt khi căng thẳng hoặc ăn đồ cay.</t>
+          <t>Mấy mảng da nổi gồ, ngứa bất chợt, mất vài giờ rồi lại xuất hiện ở chỗ khác.</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mình thấy một mảng da cứng, hơi sần, màu nâu đỏ trên trán, lâu lành và thỉnh thoảng rỉ máu.</t>
+          <t>Cánh tay nổi cục đỏ nhỏ, mềm và hơi ấm, thỉnh thoảng đau nhói.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Vùng cổ và khuỷu tay ngứa kinh khủng, da bong tróc, khó chịu vào ban đêm.</t>
+          <t>Cẳng chân có nốt đỏ tím, hơi đau, cảm giác nhói khi chạm.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chân mình sưng đỏ, đau nhẹ, xuất hiện mụn nước nhỏ rải rác, đi lại khó chịu.</t>
+          <t>Ngón tay mọc sẩn cứng, sần sùi, lan ra dần, hơi ngứa khi cào mạnh.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Da tay và chân khô, nứt nẻ, bong vảy, ngứa dữ dội khi tắm hoặc rửa tay.</t>
+          <t>Da mình nổi mụn đỏ, có mủ, sờ vào hơi đau, đặc biệt khi căng thẳng hoặc ăn đồ cay.</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sau khi uống thuốc, mình nổi ban đỏ toàn thân, ngứa và nóng rát từng mảng.</t>
+          <t>Mình thấy một mảng da cứng, hơi sần, màu nâu đỏ trên trán, lâu lành và thỉnh thoảng rỉ máu.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mình phát hiện mụn nước nhỏ quanh môi, đau rát, rỉ dịch lúc khô lúc ướt.</t>
+          <t>Vùng cổ và khuỷu tay ngứa kinh khủng, da bong tróc, khó chịu vào ban đêm.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Da mình xuất hiện vùng sáng hơn bình thường trên cánh tay, mặt, khác hẳn vùng da còn lại.</t>
+          <t>Chân mình sưng đỏ, đau nhẹ, xuất hiện mụn nước nhỏ rải rác, đi lại khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Má và mũi đỏ rát mỗi khi ra ngoài nắng, da hơi nóng, cảm giác rát nhẹ.</t>
+          <t>Da tay và chân khô, nứt nẻ, bong vảy, ngứa dữ dội khi tắm hoặc rửa tay.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Nốt ruồi trên vai to lên, viền không đều, màu tối hơn, sờ vào hơi cứng.</t>
+          <t>Sau khi uống thuốc, mình nổi ban đỏ toàn thân, ngứa và nóng rát từng mảng.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Sau khi đi rừng, tay mình bị nổi mẩn đỏ, mụn nước li ti, ngứa và khó chịu.</t>
+          <t>Mình phát hiện mụn nước nhỏ quanh môi, đau rát, rỉ dịch lúc khô lúc ướt.</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mảng da ở đầu gối đỏ, bong vảy, ngứa, lâu lâu rỉ dịch vàng nhỏ.</t>
+          <t>Da mình xuất hiện vùng sáng hơn bình thường trên cánh tay, mặt, khác hẳn vùng da còn lại.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Trên lưng xuất hiện mảng nâu sẫm nhô lên, hơi ráp, không đau nhưng nhìn thấy rõ.</t>
+          <t>Má và mũi đỏ rát mỗi khi ra ngoài nắng, da hơi nóng, cảm giác rát nhẹ.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Da mình sưng đỏ ở cổ chân, cảm giác nóng, nguyên nhân không rõ.</t>
+          <t>Nốt ruồi trên vai to lên, viền không đều, màu tối hơn, sờ vào hơi cứng.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Vùng bẹn nổi mẩn tròn, rìa rõ, trung tâm nhạt, ngứa khi vận động hoặc cọ xát.</t>
+          <t>Sau khi đi rừng, tay mình bị nổi mẩn đỏ, mụn nước li ti, ngứa và khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Mấy mảng da nổi gồ, ngứa bất chợt, mất vài giờ rồi lại xuất hiện ở vùng khác.</t>
+          <t>Mảng da ở đầu gối đỏ, bong vảy, ngứa, lâu lâu rỉ dịch vàng nhỏ.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cánh tay xuất hiện khối đỏ mềm, hơi ấm, thỉnh thoảng hơi đau.</t>
+          <t>Trên lưng xuất hiện mảng nâu sẫm nhô lên, hơi ráp, không đau nhưng nhìn thấy rõ.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cẳng chân có nốt đỏ tím, hơi đau, lan dần khi chạm vào.</t>
+          <t>Da mình sưng đỏ ở cổ chân, cảm giác nóng, nguyên nhân không rõ.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Trên tay mọc sẩn cứng, sần sùi, lan ra dần, hơi ngứa khi gãi.Mỗi sáng thức dậy là thấy mụn mới, tự ti nên không dám ra đường nhiều, đặc biệt là đi học hay gặp khách.</t>
+          <t>Vùng bẹn nổi mẩn tròn, rìa rõ, trung tâm nhạt, ngứa khi vận động hoặc cọ xát.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mình phát hiện mảng da trên trán hơi cứng, sần, lâu lành; mỗi lần đi ngoài nắng là sợ bị cháy thêm.</t>
+          <t>Mấy mảng da nổi gồ, ngứa bất chợt, mất vài giờ rồi lại xuất hiện ở vùng khác.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Đêm nào cũng gãi cổ và khuỷu tay đến rát, ngủ không yên giấc, sáng thức dậy thì da tróc vảy khắp nơi.</t>
+          <t>Cánh tay xuất hiện khối đỏ mềm, hơi ấm, thỉnh thoảng hơi đau.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Đi làm mà chân sưng đỏ, đau, đi lại khó chịu; còn bị sưng nhẹ nên không đi giày vừa chân được.</t>
+          <t>Cẳng chân có nốt đỏ tím, hơi đau, lan dần khi chạm vào.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Da tay nứt nẻ, bong vảy, ngứa nhiều, rửa bát xong là thấy rát, khó làm việc nhà.</t>
+          <t>Trên tay mọc sẩn cứng, sần sùi, lan ra dần, hơi ngứa khi gãi.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Sau khi uống thuốc giảm đau, nổi mẩn đỏ toàn thân, vợ nhìn còn sợ, mình cảm giác khó chịu kinh khủng.</t>
+          <t>Mỗi sáng thức dậy là thấy mụn mới, tự ti nên không dám ra đường nhiều, đặc biệt là đi học hay gặp khách.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Mấy nốt mụn nước quanh môi đau rát, ăn uống khó khăn, nói chuyện cũng hơi e dè.</t>
+          <t>Mình phát hiện mảng da trên trán hơi cứng, sần, lâu lành; mỗi lần đi ngoài nắng là sợ bị cháy thêm.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Da tay và cánh tay sáng bất thường, nhìn vào gương là nhận ra ngay, tự ti khi mặc áo ngắn tay.</t>
+          <t>Đêm nào cũng gãi cổ và khuỷu tay đến rát, ngủ không yên giấc, sáng thức dậy thì da tróc vảy khắp nơi.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mỗi lần ra đường nắng là má và mũi đỏ rát, đôi khi cảm giác da nóng như bị bỏng, phải đội mũ hoặc khẩu trang.</t>
+          <t>Đi làm mà chân sưng đỏ, đau, đi lại khó chịu; còn bị sưng nhẹ nên không đi giày vừa chân được.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Nốt ruồi trên vai ngày càng lớn, sờ vào hơi cứng, đi bơi hay mặc áo hở là lo lắng người khác nhìn.</t>
+          <t>Da tay nứt nẻ, bong vảy, ngứa nhiều, rửa bát xong là thấy rát, khó làm việc nhà.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Tay mình bị nổi mẩn đỏ sau khi đi rừng, mụn nước li ti, ngứa dữ dội, phải bôi thuốc liên tục.</t>
+          <t>Sau khi uống thuốc giảm đau, nổi mẩn đỏ toàn thân, vợ nhìn còn sợ, mình cảm giác khó chịu kinh khủng.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Mảng da đỏ ở đầu gối bong vảy, ngứa, mặc quần dài cũng cọ xát đau, không dám đi giày cao.</t>
+          <t>Mấy nốt mụn nước quanh môi đau rát, ăn uống khó khăn, nói chuyện cũng hơi e dè.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Trên lưng xuất hiện mảng nâu sẫm nhô lên, hơi ráp, nhìn thấy khi soi gương, mặc áo mát hơi e dè.</t>
+          <t>Da tay và cánh tay sáng bất thường, nhìn vào gương là nhận ra ngay, tự ti khi mặc áo ngắn tay.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Da sưng đỏ ở cổ chân, cảm giác nóng, đi lại khó chịu, không dám vận động nhiều.</t>
+          <t>Mỗi lần ra đường nắng là má và mũi đỏ rát, đôi khi cảm giác da nóng như bị bỏng, phải đội mũ hoặc khẩu trang.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Vùng bẹn nổi mẩn tròn, ngứa khi vận động, phải hạn chế chạy nhảy hoặc chơi thể thao.</t>
+          <t>Nốt ruồi trên vai ngày càng lớn, sờ vào hơi cứng, đi bơi hay mặc áo hở là lo lắng người khác nhìn.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Mấy mảng da nổi gồ, ngứa bất chợt, mất vài giờ rồi lại xuất hiện, lúc nào cũng phải để ý cào hay không.</t>
+          <t>Tay mình bị nổi mẩn đỏ sau khi đi rừng, mụn nước li ti, ngứa dữ dội, phải bôi thuốc liên tục.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cánh tay xuất hiện khối đỏ mềm, hơi ấm, khi đi làm gõ bàn phím cũng khó chịu.</t>
+          <t>Mảng da đỏ ở đầu gối bong vảy, ngứa, mặc quần dài cũng cọ xát đau, không dám đi giày cao.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cẳng chân có nốt đỏ tím, hơi đau, lan dần, đi xe hay đứng lâu đều khó chịu.</t>
+          <t>Trên lưng xuất hiện mảng nâu sẫm nhô lên, hơi ráp, nhìn thấy khi soi gương, mặc áo mát hơi e dè.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Ngón tay mọc sẩn cứng, sần sùi, lan ra dần, lúc gãi thì đau, làm việc bếp cũng khó.Sáng dậy soi gương thấy má và trán đỏ, mụn li ti, tự ti không muốn ra ngoài gặp bạn bè.</t>
+          <t>Da sưng đỏ ở cổ chân, cảm giác nóng, đi lại khó chịu, không dám vận động nhiều.</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Mình vừa làm vườn xong, thấy vết sần trên tay hơi cứng, lo lắng nó có vấn đề gì.</t>
+          <t>Vùng bẹn nổi mẩn tròn, ngứa khi vận động, phải hạn chế chạy nhảy hoặc chơi thể thao.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Đang làm việc với máy tính thì khuỷu tay ngứa và bong vảy, phải dừng tay gãi một lúc.</t>
+          <t>Mấy mảng da nổi gồ, ngứa bất chợt, mất vài giờ rồi lại xuất hiện, lúc nào cũng phải để ý cào hay không.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Đi bộ lên cầu thang thì chân sưng đỏ, mụn nước khiến mình đi khó khăn và đau.</t>
+          <t>Cánh tay xuất hiện khối đỏ mềm, hơi ấm, khi đi làm gõ bàn phím cũng khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Rửa bát xong thì tay nứt nẻ, ngứa, cảm giác rát khiến mình phải nghỉ tay một lúc.</t>
+          <t>Cẳng chân có nốt đỏ tím, hơi đau, lan dần, đi xe hay đứng lâu đều khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Vừa uống thuốc giảm đau xong, nổi ban đỏ toàn thân, đi ngoài đường còn sợ người nhìn.</t>
+          <t>Ngón tay mọc sẩn cứng, sần sùi, lan ra dần, lúc gãi thì đau, làm việc bếp cũng khó.</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mỗi lần đi xe bus thì mụn nước quanh môi đau rát, sợ người khác để ý.</t>
+          <t>Sáng dậy soi gương thấy má và trán đỏ, mụn li ti, tự ti không muốn ra ngoài gặp bạn bè.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Trong giờ học thấy cánh tay sáng hơn các vùng khác, ngại mặc áo ngắn tay.</t>
+          <t>Mình vừa làm vườn xong, thấy vết sần trên tay hơi cứng, lo lắng nó có vấn đề gì.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Đi dã ngoại trời nắng, má và mũi đỏ rát, phải che mũi và đội mũ liên tục.</t>
+          <t>Đang làm việc với máy tính thì khuỷu tay ngứa và bong vảy, phải dừng tay gãi một lúc.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Đi bơi thì thấy nốt ruồi trên vai cứng hơn, hơi sưng, sợ mọi người nhìn thấy.</t>
+          <t>Đi bộ lên cầu thang thì chân sưng đỏ, mụn nước khiến mình đi khó khăn và đau.</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Đi leo núi xong tay nổi mẩn đỏ, mụn nước li ti, ngứa khó chịu, phải bôi thuốc ngay.</t>
+          <t>Rửa bát xong thì tay nứt nẻ, ngứa, cảm giác rát khiến mình phải nghỉ tay một lúc.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mặc quần dài đi làm, đầu gối bị mảng da đỏ bong vảy cọ sát đau, khó chịu.</t>
+          <t>Vừa uống thuốc giảm đau xong, nổi ban đỏ toàn thân, đi ngoài đường còn sợ người nhìn.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Soi gương thấy lưng xuất hiện mảng nâu nhô, hơi ráp, mặc áo mát hơi e dè.</t>
+          <t>Mỗi lần đi xe bus thì mụn nước quanh môi đau rát, sợ người khác để ý.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Đi xe máy lâu thấy cổ chân sưng đỏ, nóng và đau, khó chịu khi đi đường dài.</t>
+          <t>Trong giờ học thấy cánh tay sáng hơn các vùng khác, ngại mặc áo ngắn tay.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mặc đồ tập thể thao thì vùng bẹn nổi mẩn, ngứa khi vận động mạnh, phải dừng tập.</t>
+          <t>Đi dã ngoại trời nắng, má và mũi đỏ rát, phải che mũi và đội mũ liên tục.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ngồi văn phòng cả ngày, mảng da gồ lên, ngứa bất chợt, khó tập trung làm việc.</t>
+          <t>Đi bơi thì thấy nốt ruồi trên vai cứng hơn, hơi sưng, sợ mọi người nhìn thấy.</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Viết bảng trong lớp, cục đỏ trên cánh tay hơi đau, khó cầm bút lâu.</t>
+          <t>Đi leo núi xong tay nổi mẩn đỏ, mụn nước li ti, ngứa khó chịu, phải bôi thuốc ngay.</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Đứng xếp hàng lâu, cẳng chân đỏ tím, hơi đau, đi lại khó chịu.</t>
+          <t>Mặc quần dài đi làm, đầu gối bị mảng da đỏ bong vảy cọ sát đau, khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rửa bát tối nay thấy ngón tay mọc sẩn cứng, sần sùi, lan ra dần, hơi ngứa.Khi đi phỏng vấn, mình nhận ra da trán đỏ và mụn li ti, tự ti đến mức muốn đội mũ che mặt.</t>
+          <t>Soi gương thấy lưng xuất hiện mảng nâu nhô, hơi ráp, mặc áo mát hơi e dè.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Mình vừa cắt cỏ ngoài sân, thấy vết sần cứng trên tay, lo lắng có phải là ung thư da.</t>
+          <t>Đi xe máy lâu thấy cổ chân sưng đỏ, nóng và đau, khó chịu khi đi đường dài.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ngồi quán cà phê đọc sách thì cổ và khuỷu tay ngứa dữ dội, phải dừng lại và gãi.</t>
+          <t>Mặc đồ tập thể thao thì vùng bẹn nổi mẩn, ngứa khi vận động mạnh, phải dừng tập.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Đi chợ về, chân đỏ sưng, đau khi đứng lâu, mụn nước lan ra từng mảng.</t>
+          <t>Ngồi văn phòng cả ngày, mảng da gồ lên, ngứa bất chợt, khó tập trung làm việc.</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Đi chợ trời lạnh, tay nứt nẻ, bong vảy, ngứa, rửa tay là đau rát.</t>
+          <t>Viết bảng trong lớp, cục đỏ trên cánh tay hơi đau, khó cầm bút lâu.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sau khi tiêm phòng, nổi ban đỏ toàn thân, cảm giác nóng và ngứa, khó chịu khi mặc áo dài.</t>
+          <t>Đứng xếp hàng lâu, cẳng chân đỏ tím, hơi đau, đi lại khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mụn nước quanh môi xuất hiện khi đang nói chuyện với khách, đau và rát, không dám cười nhiều.</t>
+          <t>Rửa bát tối nay thấy ngón tay mọc sẩn cứng, sần sùi, lan ra dần, hơi ngứa.</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Đang đi xe đạp thì thấy vùng tay sáng hơn các chỗ khác, tự ti khi ai đó nhìn vào.</t>
+          <t>Khi đi phỏng vấn, mình nhận ra da trán đỏ và mụn li ti, tự ti đến mức muốn đội mũ che mặt.</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Khi đi picnic nắng, má và mũi đỏ rát, phải tìm chỗ râm che mát, khó chịu suốt buổi.</t>
+          <t>Mình vừa cắt cỏ ngoài sân, thấy vết sần cứng trên tay, lo lắng có phải là ung thư da.</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Trên vai thấy nốt ruồi sưng cứng khi mặc áo tank-top đi bơi, hơi sợ người khác nhìn.</t>
+          <t>Ngồi quán cà phê đọc sách thì cổ và khuỷu tay ngứa dữ dội, phải dừng lại và gãi.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Đi dã ngoại rừng, tay nổi mẩn đỏ, mụn nước li ti, phải bôi thuốc ngay để khỏi ngứa.</t>
+          <t>Đi chợ về, chân đỏ sưng, đau khi đứng lâu, mụn nước lan ra từng mảng.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Mặc váy đi tiệc, đầu gối mảng đỏ bong vảy cọ sát gây đau, khó chịu khi ngồi lâu.</t>
+          <t>Đi chợ trời lạnh, tay nứt nẻ, bong vảy, ngứa, rửa tay là đau rát.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Trong phòng tập gym, lưng xuất hiện mảng nâu nhô lên, hơi ráp, mặc áo hở là thấy e dè.</t>
+          <t>Sau khi tiêm phòng, nổi ban đỏ toàn thân, cảm giác nóng và ngứa, khó chịu khi mặc áo dài.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Đi du lịch, cổ chân sưng đỏ, nóng và đau, phải hạn chế đi bộ nhiều.</t>
+          <t>Mụn nước quanh môi xuất hiện khi đang nói chuyện với khách, đau và rát, không dám cười nhiều.</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Chơi cầu lông, vùng bẹn nổi mẩn đỏ, ngứa khi vận động mạnh, phải nghỉ vài hôm.</t>
+          <t>Đang đi xe đạp thì thấy vùng tay sáng hơn các chỗ khác, tự ti khi ai đó nhìn vào.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ngồi đọc sách ở thư viện, mảng da gồ lên, ngứa bất chợt, phải cào nhẹ để bớt khó chịu.</t>
+          <t>Khi đi picnic nắng, má và mũi đỏ rát, phải tìm chỗ râm che mát, khó chịu suốt buổi.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Viết bài trên bảng, cục đỏ trên cánh tay đau khi nâng tay lâu, khó chịu.</t>
+          <t>Trên vai thấy nốt ruồi sưng cứng khi mặc áo tank-top đi bơi, hơi sợ người khác nhìn.</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Đứng chờ xe bus lâu, cẳng chân đỏ tím, hơi đau, đi lại khó chịu.</t>
+          <t>Đi dã ngoại rừng, tay nổi mẩn đỏ, mụn nước li ti, phải bôi thuốc ngay để khỏi ngứa.</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mùa đông rửa bát, ngón tay mọc sẩn cứng, sần sùi, lan ra, cảm giác rất khó chịu.Mỗi lần thức khuya học bài, má và trán mình nổi mụn đỏ, nhìn rõ trong gương.</t>
+          <t>Mặc váy đi tiệc, đầu gối mảng đỏ bong vảy cọ sát gây đau, khó chịu khi ngồi lâu.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Khi đọc báo và soi gương thấy một vết sần nhỏ trên trán, hơi cứng, làm mình căng thẳng.</t>
+          <t>Trong phòng tập gym, lưng xuất hiện mảng nâu nhô lên, hơi ráp, mặc áo hở là thấy e dè.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ngồi làm việc trên máy tính, cổ và khuỷu tay ngứa, khô, khó chịu, ảnh hưởng tập trung.</t>
+          <t>Đi du lịch, cổ chân sưng đỏ, nóng và đau, phải hạn chế đi bộ nhiều.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Trong lúc chuẩn bị bữa ăn sáng, chân đỏ và hơi sưng, đi lại khó khăn hơn bình thường.</t>
+          <t>Chơi cầu lông, vùng bẹn nổi mẩn đỏ, ngứa khi vận động mạnh, phải nghỉ vài hôm.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Mình đang viết báo cáo thì tay bong vảy, ngứa, không thể gõ phím lâu.</t>
+          <t>Ngồi đọc sách ở thư viện, mảng da gồ lên, ngứa bất chợt, phải cào nhẹ để bớt khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Uống thuốc kháng viêm, xuất hiện ban đỏ toàn thân, cảm giác nóng rát, khó mặc áo dài.</t>
+          <t>Viết bài trên bảng, cục đỏ trên cánh tay đau khi nâng tay lâu, khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Mụn nước quanh môi xuất hiện khi đang nói chuyện điện thoại, đau rát, e dè khi cười.</t>
+          <t>Đứng chờ xe bus lâu, cẳng chân đỏ tím, hơi đau, đi lại khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Trong giờ họp trực tuyến, thấy da tay sáng hơn bình thường, hơi lo lắng khi giơ tay.</t>
+          <t>Mùa đông rửa bát, ngón tay mọc sẩn cứng, sần sùi, lan ra, cảm giác rất khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Đọc sách tối, má và mũi đỏ rát, cảm giác nóng, phải nghỉ đọc một lúc.</t>
+          <t>Mỗi lần thức khuya học bài, má và trán mình nổi mụn đỏ, nhìn rõ trong gương.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Khi soi gương, nốt ruồi trên vai hơi sưng, viền không đều, hơi lo lắng.</t>
+          <t>Khi đọc báo và soi gương thấy một vết sần nhỏ trên trán, hơi cứng, làm mình căng thẳng.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Vừa cầm điện thoại gọi điện cho bạn, tay nổi mẩn đỏ, mụn nước li ti, phải dừng tay gãi.</t>
+          <t>Ngồi làm việc trên máy tính, cổ và khuỷu tay ngứa, khô, khó chịu, ảnh hưởng tập trung.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ngồi làm việc văn phòng, đầu gối thấy mảng da đỏ bong vảy, cọ quần gây đau, khó chịu.</t>
+          <t>Trong lúc chuẩn bị bữa ăn sáng, chân đỏ và hơi sưng, đi lại khó khăn hơn bình thường.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Trên lưng soi gương thấy mảng nâu nhô lên, hơi ráp, mặc áo sơ mi khó chịu.</t>
+          <t>Mình đang viết báo cáo thì tay bong vảy, ngứa, không thể gõ phím lâu.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Khi đi gặp khách hàng, cổ chân sưng đỏ, nóng, khó chịu khi đứng lâu.</t>
+          <t>Uống thuốc kháng viêm, xuất hiện ban đỏ toàn thân, cảm giác nóng rát, khó mặc áo dài.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Đang chơi board game với bạn, vùng bẹn nổi mẩn tròn, ngứa khi vận động mạnh, phải nghỉ chơi.</t>
+          <t>Mụn nước quanh môi xuất hiện khi đang nói chuyện điện thoại, đau rát, e dè khi cười.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Trong lúc đọc báo online, thấy mảng da gồ lên, ngứa bất chợt, phải cào nhẹ.</t>
+          <t>Trong giờ họp trực tuyến, thấy da tay sáng hơn bình thường, hơi lo lắng khi giơ tay.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Viết bài luận, cục đỏ trên cánh tay hơi đau khi giơ tay lâu, khó chịu.</t>
+          <t>Đọc sách tối, má và mũi đỏ rát, cảm giác nóng, phải nghỉ đọc một lúc.</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ngồi chờ thang máy lâu, cẳng chân đỏ tím, hơi đau, cảm giác mỏi chân.</t>
+          <t>Khi soi gương, nốt ruồi trên vai hơi sưng, viền không đều, hơi lo lắng.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Warts, Molluscum, and other Viral InfectionsAcne and Rosacea</t>
+          <t>Poison Ivy and Contact Dermatitis</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lúc làm việc với đồ gỗ, ngón tay mọc sẩn cứng, sần sùi, lan ra, hơi khó chịu.Mình vừa thức dậy giữa đêm đi uống nước, soi gương thấy mụn đỏ nổi lên má, nóng rát.</t>
+          <t>Vừa cầm điện thoại gọi điện cho bạn, tay nổi mẩn đỏ, mụn nước li ti, phải dừng tay gãi.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Đang cắt hành trong bếp, thấy vết sần nhỏ trên trán, hơi cứng, lo lắng về sức khỏe da.</t>
+          <t>Ngồi làm việc văn phòng, đầu gối thấy mảng da đỏ bong vảy, cọ quần gây đau, khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Atopic Dermatitis</t>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Khi tắm nước nóng, cổ và khuỷu tay ngứa rát, da bong vảy, phải tắm nhanh.</t>
+          <t>Trên lưng soi gương thấy mảng nâu nhô lên, hơi ráp, mặc áo sơ mi khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
+          <t>Systemic Disease</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Chuẩn bị giày cho trẻ, chân bỗng đỏ sưng, mụn nước, đi lại rất khó chịu.</t>
+          <t>Khi đi gặp khách hàng, cổ chân sưng đỏ, nóng, khó chịu khi đứng lâu.</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Eczema</t>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Mình cạo rau thì tay nứt nẻ, bong vảy, cảm giác rát khi tiếp xúc nước.</t>
+          <t>Đang chơi board game với bạn, vùng bẹn nổi mẩn tròn, ngứa khi vận động mạnh, phải nghỉ chơi.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Exanthems and Drug Eruptions</t>
+          <t>Urticaria</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Sau khi uống sữa đặc, mình nổi mẩn đỏ khắp tay và ngực, nóng rát, khó chịu.</t>
+          <t>Trong lúc đọc báo online, thấy mảng da gồ lên, ngứa bất chợt, phải cào nhẹ.</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Herpes, HPV, and other STDs</t>
+          <t>Vascular Tumors</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Khi hôn con, mụn nước quanh môi đau rát, không dám cười nhiều.</t>
+          <t>Viết bài luận, cục đỏ trên cánh tay hơi đau khi giơ tay lâu, khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Light Diseases and Disorders of Pigmentation</t>
+          <t>Vasculitis</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Vừa rửa cà chua cho bữa tối, thấy da tay sáng hơn các vùng khác, hơi lo lắng.</t>
+          <t>Ngồi chờ thang máy lâu, cẳng chân đỏ tím, hơi đau, cảm giác mỏi chân.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Lupus and other Connective Tissue Diseases</t>
+          <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Mình đi mua đồ trong trời mưa, má và mũi đỏ rát, da nóng, phải che mũi bằng áo khoác.</t>
+          <t>Lúc làm việc với đồ gỗ, ngón tay mọc sẩn cứng, sần sùi, lan ra, hơi khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+          <t>Acne and Rosacea</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Khi soi gương sau khi đội túi xách nặng, nốt ruồi trên vai hơi sưng, lo lắng.</t>
+          <t>Mình vừa thức dậy giữa đêm đi uống nước, soi gương thấy mụn đỏ nổi lên má, nóng rát.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Poison Ivy and Contact Dermatitis</t>
+          <t>Actinic Keratosis, Basal Cell Carcinoma, and other Malignant Lesions</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Vừa rửa lá rau ngoài sân, tay nổi mẩn đỏ li ti, ngứa, phải rửa sạch và bôi thuốc.</t>
+          <t>Đang cắt hành trong bếp, thấy vết sần nhỏ trên trán, hơi cứng, lo lắng về sức khỏe da.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Psoriasis, Lichen Planus, and related diseases</t>
+          <t>Atopic Dermatitis</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Trong khi mặc quần áo mùa đông, đầu gối mảng da đỏ bong vảy, cọ quần đau khó chịu.</t>
+          <t>Khi tắm nước nóng, cổ và khuỷu tay ngứa rát, da bong vảy, phải tắm nhanh.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Seborrheic Keratoses and other Benign Tumors</t>
+          <t>Cellulitis, Impetigo, and other Bacterial Infections</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Mình cầm bánh mì nóng, thấy lưng có mảng nâu nhô lên, hơi ráp, cảm giác khó chịu.</t>
+          <t>Chuẩn bị giày cho trẻ, chân bỗng đỏ sưng, mụn nước, đi lại rất khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Systemic Disease</t>
+          <t>Eczema</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ngồi trên ghế đá công viên, cổ chân sưng đỏ, nóng, khó chịu khi đặt chân xuống.</t>
+          <t>Mình cạo rau thì tay nứt nẻ, bong vảy, cảm giác rát khi tiếp xúc nước.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+          <t>Exanthems and Drug Eruptions</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Chơi với thú cưng, vùng bẹn nổi mẩn tròn, ngứa khi cúi xuống, phải nghỉ vài phút.</t>
+          <t>Sau khi uống sữa đặc, mình nổi mẩn đỏ khắp tay và ngực, nóng rát, khó chịu.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Urticaria</t>
+          <t>Herpes, HPV, and other STDs</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Khi gội đầu cho trẻ, mảng da gồ lên, ngứa bất chợt, phải cào nhẹ.</t>
+          <t>Khi hôn con, mụn nước quanh môi đau rát, không dám cười nhiều.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Vascular Tumors</t>
+          <t>Light Diseases and Disorders of Pigmentation</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Mình gập tay để mặc áo, cục đỏ trên cánh tay hơi đau, khó chịu khi co tay lâu.</t>
+          <t>Vừa rửa cà chua cho bữa tối, thấy da tay sáng hơn các vùng khác, hơi lo lắng.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Vasculitis</t>
+          <t>Lupus and other Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Đứng chờ taxi lâu, cẳng chân đỏ tím, hơi đau, đi lại khó chịu.</t>
+          <t>Mình đi mua đồ trong trời mưa, má và mũi đỏ rát, da nóng, phải che mũi bằng áo khoác.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
+          <t>Melanoma, Skin Cancer, Nevi, and Moles</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Khi soi gương sau khi đội túi xách nặng, nốt ruồi trên vai hơi sưng, lo lắng.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Poison Ivy and Contact Dermatitis</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Vừa rửa lá rau ngoài sân, tay nổi mẩn đỏ li ti, ngứa, phải rửa sạch và bôi thuốc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Psoriasis, Lichen Planus, and related diseases</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Trong khi mặc quần áo mùa đông, đầu gối mảng da đỏ bong vảy, cọ quần đau khó chịu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Seborrheic Keratoses and other Benign Tumors</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Mình cầm bánh mì nóng, thấy lưng có mảng nâu nhô lên, hơi ráp, cảm giác khó chịu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Systemic Disease</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Ngồi trên ghế đá công viên, cổ chân sưng đỏ, nóng, khó chịu khi đặt chân xuống.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Tinea, Ringworm, Candidiasis, and other Fungal Infections</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Chơi với thú cưng, vùng bẹn nổi mẩn tròn, ngứa khi cúi xuống, phải nghỉ vài phút.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Urticaria</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Khi gội đầu cho trẻ, mảng da gồ lên, ngứa bất chợt, phải cào nhẹ.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Vascular Tumors</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Mình gập tay để mặc áo, cục đỏ trên cánh tay hơi đau, khó chịu khi co tay lâu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Vasculitis</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Đứng chờ taxi lâu, cẳng chân đỏ tím, hơi đau, đi lại khó chịu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
           <t>Warts, Molluscum, and other Viral Infections</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Mình vừa làm bánh, ngón tay mọc sẩn cứng, sần sùi, lan ra, hơi khó chịu.</t>
         </is>
